--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Gesture.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Gesture.xlsx
@@ -377,34 +377,6 @@
 };
 validate4
 {
-validate_Text_Exists=VT187-0151
-};
-validate5
-{
-validate_Result=Gesture detected for 1th time
-validate_Result=My Linear Gesture
-};
-validate6
-{
-validate_Result=Gesture detected for 2th time
-validate_Result=My Linear Gesture
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Gesture Index
-};
-validate3
-{
-validate_PageTitle=Linear Gesture
-};
-validate4
-{
 validate_Text_Exists=VT187-0063
 };
 validate5
@@ -602,29 +574,6 @@
 validate5
 {
 validate_PageTitle=Navigation Check
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Gesture Index
-};
-validate3
-{
-validate_PageTitle=Hold Gesture
-};
-validate4
-{
-validate_Text_Exists=VT187-0151h
-};
-validate5
-{
-validate_Result=Gesture detected for 4th time
-validate_Result=hold-center
 };</t>
   </si>
   <si>
@@ -1024,6 +973,57 @@
 ClickRunTest(deleteButton_xpath);
 DrawGesture(hold,200,900,6000);
 validate6;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Gesture Index
+};
+validate3
+{
+validate_PageTitle=Linear Gesture
+};
+validate4
+{
+validate_Text_Exists=VT187-0151
+};
+validate5
+{
+validate_Result=Gesture with json event detected for 1th time
+validate_Result=My Linear Gesture
+};
+validate6
+{
+validate_Result=Gesture with json event detected for 2th time
+validate_Result=My Linear Gesture
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Gesture Index
+};
+validate3
+{
+validate_PageTitle=Hold Gesture
+};
+validate4
+{
+validate_Text_Exists=VT187-0151h
+};
+validate5
+{
+validate_Result=Gesture with json event detected for 4th time
+validate_Result=hold-center
+};</t>
   </si>
 </sst>
 </file>
@@ -1509,9 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1602,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>15</v>
@@ -1629,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>17</v>
@@ -1656,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>19</v>
@@ -1683,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>23</v>
@@ -1710,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>22</v>
@@ -1737,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>25</v>
@@ -1764,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>28</v>
@@ -1791,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>29</v>
@@ -1818,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>32</v>
@@ -1845,10 +1843,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1872,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1899,10 +1897,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1926,10 +1924,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1947,16 +1945,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1974,16 +1972,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2001,16 +1999,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2028,16 +2026,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2055,16 +2053,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2082,16 +2080,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2115,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2142,10 +2140,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
